--- a/trunk/03.ManagementDoc/画页迁移图.xlsx
+++ b/trunk/03.ManagementDoc/画页迁移图.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>主画页：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t xml:space="preserve">  ----易短信2.00画页迁移图：-----</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认输入：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择联系人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,16 +702,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -710,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,9 +825,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -828,6 +837,15 @@
     <xf numFmtId="14" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,6 +915,54 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -933,61 +999,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1531,14 +1546,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1548,13 +1563,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981950" y="2305050"/>
+          <a:off x="7600950" y="3009900"/>
           <a:ext cx="1600200" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -120020"/>
-            <a:gd name="adj2" fmla="val 102500"/>
+            <a:gd name="adj1" fmla="val -81925"/>
+            <a:gd name="adj2" fmla="val 58056"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -3396,14 +3411,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
@@ -3414,7 +3429,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6296025" y="9467850"/>
+          <a:off x="6562725" y="9858375"/>
           <a:ext cx="542925" cy="228599"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3453,218 +3468,6 @@
             </a:rPr>
             <a:t>删除</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="矩形 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6896100" y="9305925"/>
-          <a:ext cx="190500" cy="2638425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="CCE8CF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>D</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>E</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>F</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>H</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>I</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>J</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>K</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>L</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>M</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>……</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4658,218 +4461,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="矩形 80"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7543800" y="17211675"/>
-          <a:ext cx="190500" cy="2638425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="CCE8CF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>D</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>E</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>F</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>H</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>I</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>J</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>K</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>L</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>M</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>……</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6108,7 +5699,7 @@
   <dimension ref="A2:O213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="12"/>
@@ -6119,12 +5710,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="2" t="s">
@@ -6152,11 +5743,11 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="81"/>
-      <c r="I7" s="82"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="6"/>
@@ -6170,11 +5761,11 @@
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72"/>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="15" t="s">
@@ -6194,11 +5785,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="82"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="6"/>
@@ -6212,11 +5803,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="15" t="s">
@@ -6236,11 +5827,11 @@
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="6"/>
@@ -6319,22 +5910,22 @@
     <row r="25" spans="2:9">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="41" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="40"/>
+      <c r="D26" s="42"/>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="40"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="14" t="s">
@@ -6364,11 +5955,11 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
-      <c r="K35" s="74" t="s">
+      <c r="K35" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="L35" s="75"/>
-      <c r="M35" s="78" t="s">
+      <c r="L35" s="65"/>
+      <c r="M35" s="68" t="s">
         <v>32</v>
       </c>
     </row>
@@ -6379,16 +5970,16 @@
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
       <c r="I36" s="8"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="79"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="69"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
       <c r="I37" s="8"/>
@@ -6397,10 +5988,10 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="89"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="22" t="s">
         <v>20</v>
       </c>
@@ -6412,9 +6003,9 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
       <c r="G39" s="6"/>
       <c r="H39" s="7"/>
       <c r="I39" s="8"/>
@@ -6423,11 +6014,11 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="72"/>
       <c r="G40" s="6"/>
       <c r="H40" s="7"/>
       <c r="I40" s="8"/>
@@ -6436,10 +6027,10 @@
       <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="84"/>
+      <c r="C41" s="74"/>
       <c r="D41" s="23">
         <v>40277</v>
       </c>
@@ -6462,11 +6053,11 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
       <c r="I43" s="8"/>
@@ -6475,10 +6066,10 @@
       <c r="M43" s="8"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="84"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="23">
         <v>40277</v>
       </c>
@@ -6599,34 +6190,36 @@
     <row r="54" spans="1:13">
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="86" t="s">
+      <c r="G54" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="H54" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I54" s="39" t="s">
+      <c r="I54" s="41" t="s">
         <v>30</v>
       </c>
       <c r="K54" s="9"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="39" t="s">
+      <c r="L54" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="M54" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="40"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="40"/>
+      <c r="D55" s="42"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="42"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="40"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14" t="s">
@@ -6670,35 +6263,35 @@
       <c r="M63" s="8"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
-      <c r="G64" s="53" t="s">
+      <c r="C64" s="56"/>
+      <c r="D64" s="57"/>
+      <c r="G64" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H64" s="54"/>
-      <c r="I64" s="55"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="57"/>
       <c r="K64" s="6"/>
       <c r="L64" s="7"/>
       <c r="M64" s="8"/>
     </row>
     <row r="65" spans="2:13">
-      <c r="B65" s="56"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="58"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="60"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="60"/>
       <c r="K65" s="6"/>
       <c r="L65" s="7"/>
       <c r="M65" s="8"/>
     </row>
     <row r="66" spans="2:13">
-      <c r="B66" s="80"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="82"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="72"/>
       <c r="G66" s="6"/>
       <c r="H66" s="7"/>
       <c r="I66" s="8"/>
@@ -6707,30 +6300,30 @@
       <c r="M66" s="8"/>
     </row>
     <row r="67" spans="2:13">
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="55"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="57"/>
       <c r="F67" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G67" s="62" t="s">
+      <c r="G67" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="H67" s="63"/>
-      <c r="I67" s="64"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="82"/>
       <c r="K67" s="6"/>
       <c r="L67" s="7"/>
       <c r="M67" s="8"/>
     </row>
     <row r="68" spans="2:13">
-      <c r="B68" s="56"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="58"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="67"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="60"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="84"/>
+      <c r="I68" s="85"/>
       <c r="K68" s="6"/>
       <c r="L68" s="7"/>
       <c r="M68" s="8"/>
@@ -6747,30 +6340,30 @@
       <c r="M69" s="8"/>
     </row>
     <row r="70" spans="2:13">
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="57"/>
       <c r="F70" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G70" s="68" t="s">
+      <c r="G70" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="H70" s="69"/>
-      <c r="I70" s="70"/>
+      <c r="H70" s="87"/>
+      <c r="I70" s="88"/>
       <c r="K70" s="6"/>
       <c r="L70" s="7"/>
       <c r="M70" s="8"/>
     </row>
     <row r="71" spans="2:13">
-      <c r="B71" s="56"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="58"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="73"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="60"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="91"/>
       <c r="K71" s="6"/>
       <c r="L71" s="7"/>
       <c r="M71" s="8"/>
@@ -6885,30 +6478,30 @@
     <row r="81" spans="1:13">
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
-      <c r="D81" s="39" t="s">
+      <c r="D81" s="41" t="s">
         <v>30</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="10"/>
-      <c r="I81" s="39" t="s">
+      <c r="I81" s="41" t="s">
         <v>30</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="10"/>
-      <c r="M81" s="39" t="s">
+      <c r="M81" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="12.75" thickBot="1">
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
-      <c r="D82" s="40"/>
+      <c r="D82" s="42"/>
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="40"/>
+      <c r="I82" s="42"/>
       <c r="K82" s="11"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="40"/>
+      <c r="M82" s="42"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="14" t="s">
@@ -7014,14 +6607,14 @@
     <row r="106" spans="1:14">
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
-      <c r="D106" s="39" t="s">
+      <c r="D106" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="12.75" thickBot="1">
       <c r="B107" s="11"/>
       <c r="C107" s="12"/>
-      <c r="D107" s="40"/>
+      <c r="D107" s="42"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="14" t="s">
@@ -7066,11 +6659,11 @@
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="8"/>
-      <c r="H116" s="41" t="s">
+      <c r="H116" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I116" s="42"/>
-      <c r="J116" s="43"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="45"/>
       <c r="M116" s="6"/>
       <c r="N116" s="7"/>
       <c r="O116" s="8"/>
@@ -7088,11 +6681,11 @@
       <c r="E117" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H117" s="44" t="s">
+      <c r="H117" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="I117" s="45"/>
-      <c r="J117" s="37" t="s">
+      <c r="I117" s="47"/>
+      <c r="J117" s="36" t="s">
         <v>20</v>
       </c>
       <c r="M117" s="6"/>
@@ -7117,29 +6710,29 @@
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="8"/>
-      <c r="H119" s="46" t="s">
+      <c r="H119" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I119" s="47"/>
-      <c r="J119" s="48"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="50"/>
       <c r="M119" s="6"/>
       <c r="N119" s="7"/>
       <c r="O119" s="8"/>
     </row>
     <row r="120" spans="2:15">
-      <c r="B120" s="59" t="s">
+      <c r="B120" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="60"/>
+      <c r="C120" s="62"/>
       <c r="D120" s="8"/>
       <c r="E120" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H120" s="49" t="s">
+      <c r="H120" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="I120" s="50"/>
-      <c r="J120" s="38">
+      <c r="I120" s="52"/>
+      <c r="J120" s="37">
         <v>40277</v>
       </c>
       <c r="M120" s="6"/>
@@ -7161,11 +6754,11 @@
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="8"/>
-      <c r="H122" s="53" t="s">
+      <c r="H122" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I122" s="54"/>
-      <c r="J122" s="55"/>
+      <c r="I122" s="56"/>
+      <c r="J122" s="57"/>
       <c r="M122" s="6"/>
       <c r="N122" s="7"/>
       <c r="O122" s="8"/>
@@ -7180,9 +6773,9 @@
       <c r="D123" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H123" s="56"/>
-      <c r="I123" s="57"/>
-      <c r="J123" s="58"/>
+      <c r="H123" s="58"/>
+      <c r="I123" s="59"/>
+      <c r="J123" s="60"/>
       <c r="M123" s="6"/>
       <c r="N123" s="7"/>
       <c r="O123" s="8"/>
@@ -7202,27 +6795,27 @@
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="8"/>
-      <c r="H125" s="53" t="s">
+      <c r="H125" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="I125" s="54"/>
-      <c r="J125" s="55"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="57"/>
       <c r="M125" s="6"/>
       <c r="N125" s="7"/>
       <c r="O125" s="8"/>
     </row>
     <row r="126" spans="2:15">
-      <c r="B126" s="59" t="s">
+      <c r="B126" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="C126" s="60"/>
-      <c r="D126" s="61"/>
+      <c r="C126" s="62"/>
+      <c r="D126" s="63"/>
       <c r="E126" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H126" s="56"/>
-      <c r="I126" s="57"/>
-      <c r="J126" s="58"/>
+      <c r="H126" s="58"/>
+      <c r="I126" s="59"/>
+      <c r="J126" s="60"/>
       <c r="M126" s="6"/>
       <c r="N126" s="7"/>
       <c r="O126" s="8"/>
@@ -7294,36 +6887,36 @@
       <c r="O132" s="13"/>
     </row>
     <row r="133" spans="1:15">
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C133" s="10"/>
-      <c r="D133" s="39" t="s">
+      <c r="D133" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H133" s="39" t="s">
+      <c r="H133" s="41" t="s">
         <v>29</v>
       </c>
       <c r="I133" s="10"/>
-      <c r="J133" s="39" t="s">
+      <c r="J133" s="41" t="s">
         <v>30</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10"/>
-      <c r="O133" s="39" t="s">
+      <c r="O133" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B134" s="40"/>
+      <c r="B134" s="42"/>
       <c r="C134" s="12"/>
-      <c r="D134" s="40"/>
-      <c r="H134" s="40"/>
+      <c r="D134" s="42"/>
+      <c r="H134" s="42"/>
       <c r="I134" s="12"/>
-      <c r="J134" s="40"/>
+      <c r="J134" s="42"/>
       <c r="M134" s="11"/>
       <c r="N134" s="12"/>
-      <c r="O134" s="40"/>
+      <c r="O134" s="42"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="14" t="s">
@@ -7347,16 +6940,16 @@
       </c>
     </row>
     <row r="143" spans="1:15" ht="12.75" thickBot="1">
-      <c r="B143" s="53" t="s">
+      <c r="B143" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C143" s="54"/>
-      <c r="D143" s="55"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="57"/>
     </row>
     <row r="144" spans="1:15" ht="12" customHeight="1">
-      <c r="B144" s="56"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="58"/>
+      <c r="B144" s="58"/>
+      <c r="C144" s="59"/>
+      <c r="D144" s="60"/>
       <c r="F144" s="3"/>
       <c r="G144" s="4"/>
       <c r="H144" s="5"/>
@@ -7371,53 +6964,59 @@
       <c r="G145" s="7"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="2:8" ht="12" customHeight="1">
-      <c r="B146" s="53" t="s">
+    <row r="146" spans="2:8" ht="12" customHeight="1" thickBot="1">
+      <c r="B146" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C146" s="54"/>
-      <c r="D146" s="55"/>
+      <c r="C146" s="56"/>
+      <c r="D146" s="57"/>
       <c r="F146" s="6"/>
       <c r="G146" s="7"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="2:8" ht="12" customHeight="1">
-      <c r="B147" s="56"/>
-      <c r="C147" s="57"/>
-      <c r="D147" s="58"/>
-      <c r="F147" s="6"/>
+    <row r="147" spans="2:8" ht="12" customHeight="1" thickBot="1">
+      <c r="B147" s="58"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="60"/>
+      <c r="F147" s="92" t="s">
+        <v>60</v>
+      </c>
       <c r="G147" s="34" t="s">
         <v>57</v>
       </c>
       <c r="H147" s="8"/>
     </row>
-    <row r="148" spans="2:8" ht="12" customHeight="1">
+    <row r="148" spans="2:8" ht="12" customHeight="1" thickBot="1">
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
       <c r="D148" s="8"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="7"/>
+      <c r="F148" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="G148" s="93" t="s">
+        <v>57</v>
+      </c>
       <c r="H148" s="8"/>
     </row>
     <row r="149" spans="2:8" ht="12" customHeight="1" thickBot="1">
-      <c r="B149" s="53" t="s">
+      <c r="B149" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C149" s="54"/>
-      <c r="D149" s="55"/>
+      <c r="C149" s="56"/>
+      <c r="D149" s="57"/>
       <c r="F149" s="6"/>
       <c r="G149" s="7"/>
       <c r="H149" s="8"/>
     </row>
     <row r="150" spans="2:8" ht="12" customHeight="1">
-      <c r="B150" s="56"/>
-      <c r="C150" s="57"/>
-      <c r="D150" s="58"/>
-      <c r="F150" s="51" t="s">
+      <c r="B150" s="58"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="60"/>
+      <c r="F150" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G150" s="35"/>
-      <c r="H150" s="51" t="s">
+      <c r="G150" s="34"/>
+      <c r="H150" s="53" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7425,21 +7024,21 @@
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
       <c r="D151" s="8"/>
-      <c r="F151" s="52"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="52"/>
+      <c r="F151" s="54"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="54"/>
     </row>
     <row r="152" spans="2:8">
-      <c r="B152" s="53" t="s">
+      <c r="B152" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C152" s="54"/>
-      <c r="D152" s="55"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="57"/>
     </row>
     <row r="153" spans="2:8">
-      <c r="B153" s="56"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="58"/>
+      <c r="B153" s="58"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="60"/>
     </row>
     <row r="154" spans="2:8">
       <c r="B154" s="6"/>
@@ -7472,18 +7071,18 @@
       <c r="D159" s="13"/>
     </row>
     <row r="160" spans="2:8">
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C160" s="10"/>
-      <c r="D160" s="39" t="s">
+      <c r="D160" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B161" s="40"/>
+      <c r="B161" s="42"/>
       <c r="C161" s="12"/>
-      <c r="D161" s="40"/>
+      <c r="D161" s="42"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
@@ -7589,14 +7188,14 @@
     <row r="186" spans="1:4">
       <c r="B186" s="9"/>
       <c r="C186" s="10"/>
-      <c r="D186" s="39" t="s">
+      <c r="D186" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="12.75" thickBot="1">
       <c r="B187" s="11"/>
       <c r="C187" s="12"/>
-      <c r="D187" s="40"/>
+      <c r="D187" s="42"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
@@ -7702,17 +7301,17 @@
     <row r="212" spans="2:4">
       <c r="B212" s="9"/>
       <c r="C212" s="10"/>
-      <c r="D212" s="39" t="s">
+      <c r="D212" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="213" spans="2:4" ht="12.75" thickBot="1">
       <c r="B213" s="11"/>
       <c r="C213" s="12"/>
-      <c r="D213" s="40"/>
+      <c r="D213" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="D81:D82"/>
@@ -7722,6 +7321,10 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B40:D40"/>
+    <mergeCell ref="G67:I68"/>
+    <mergeCell ref="G70:I71"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="B70:D71"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="G11:I11"/>
@@ -7738,11 +7341,8 @@
     <mergeCell ref="H54:H55"/>
     <mergeCell ref="G54:G55"/>
     <mergeCell ref="G64:I65"/>
-    <mergeCell ref="G67:I68"/>
-    <mergeCell ref="G70:I71"/>
     <mergeCell ref="B64:D65"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="B70:D71"/>
+    <mergeCell ref="L54:L55"/>
     <mergeCell ref="M81:M82"/>
     <mergeCell ref="D133:D134"/>
     <mergeCell ref="D160:D161"/>

--- a/trunk/03.ManagementDoc/画页迁移图.xlsx
+++ b/trunk/03.ManagementDoc/画页迁移图.xlsx
@@ -846,12 +846,135 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,129 +1004,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2980,218 +2980,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="矩形 60"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2847975" y="5095875"/>
-          <a:ext cx="190500" cy="2638425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="CCE8CF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>A</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>C</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>D</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>E</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>F</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>G</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>H</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>I</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>J</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>K</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>L</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>M</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>……</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5698,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="12"/>
@@ -5743,11 +5531,11 @@
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="6"/>
@@ -5761,11 +5549,11 @@
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="15" t="s">
@@ -5785,11 +5573,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="72"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="6"/>
@@ -5803,11 +5591,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="15" t="s">
@@ -5827,11 +5615,11 @@
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="6"/>
@@ -5910,22 +5698,22 @@
     <row r="25" spans="2:9">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="41" t="s">
+      <c r="I25" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="42"/>
+      <c r="D26" s="44"/>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="42"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="14" t="s">
@@ -5955,11 +5743,11 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
-      <c r="K35" s="64" t="s">
+      <c r="K35" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="L35" s="65"/>
-      <c r="M35" s="68" t="s">
+      <c r="L35" s="69"/>
+      <c r="M35" s="72" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5970,16 +5758,16 @@
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
       <c r="I36" s="8"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="69"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="73"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
       <c r="I37" s="8"/>
@@ -5988,10 +5776,10 @@
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="22" t="s">
         <v>20</v>
       </c>
@@ -6003,9 +5791,9 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="B39" s="70"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
       <c r="G39" s="6"/>
       <c r="H39" s="7"/>
       <c r="I39" s="8"/>
@@ -6014,11 +5802,11 @@
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
       <c r="G40" s="6"/>
       <c r="H40" s="7"/>
       <c r="I40" s="8"/>
@@ -6027,10 +5815,10 @@
       <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="74"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="23">
         <v>40277</v>
       </c>
@@ -6053,11 +5841,11 @@
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
       <c r="I43" s="8"/>
@@ -6066,10 +5854,10 @@
       <c r="M43" s="8"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="74"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="23">
         <v>40277</v>
       </c>
@@ -6190,36 +5978,36 @@
     <row r="54" spans="1:13">
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="76" t="s">
+      <c r="G54" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I54" s="41" t="s">
+      <c r="I54" s="43" t="s">
         <v>30</v>
       </c>
       <c r="K54" s="9"/>
-      <c r="L54" s="41" t="s">
+      <c r="L54" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="M54" s="41" t="s">
+      <c r="M54" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="42"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="42"/>
+      <c r="D55" s="44"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="44"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14" t="s">
@@ -6263,35 +6051,35 @@
       <c r="M63" s="8"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="G64" s="55" t="s">
+      <c r="C64" s="63"/>
+      <c r="D64" s="64"/>
+      <c r="G64" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="H64" s="56"/>
-      <c r="I64" s="57"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="64"/>
       <c r="K64" s="6"/>
       <c r="L64" s="7"/>
       <c r="M64" s="8"/>
     </row>
     <row r="65" spans="2:13">
-      <c r="B65" s="58"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="60"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="60"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="67"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="67"/>
       <c r="K65" s="6"/>
       <c r="L65" s="7"/>
       <c r="M65" s="8"/>
     </row>
     <row r="66" spans="2:13">
-      <c r="B66" s="70"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="72"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="47"/>
       <c r="G66" s="6"/>
       <c r="H66" s="7"/>
       <c r="I66" s="8"/>
@@ -6300,30 +6088,30 @@
       <c r="M66" s="8"/>
     </row>
     <row r="67" spans="2:13">
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="57"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="64"/>
       <c r="F67" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G67" s="80" t="s">
+      <c r="G67" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H67" s="81"/>
-      <c r="I67" s="82"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="52"/>
       <c r="K67" s="6"/>
       <c r="L67" s="7"/>
       <c r="M67" s="8"/>
     </row>
     <row r="68" spans="2:13">
-      <c r="B68" s="58"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="60"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="85"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="55"/>
       <c r="K68" s="6"/>
       <c r="L68" s="7"/>
       <c r="M68" s="8"/>
@@ -6340,30 +6128,30 @@
       <c r="M69" s="8"/>
     </row>
     <row r="70" spans="2:13">
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="57"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="64"/>
       <c r="F70" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G70" s="86" t="s">
+      <c r="G70" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H70" s="87"/>
-      <c r="I70" s="88"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="58"/>
       <c r="K70" s="6"/>
       <c r="L70" s="7"/>
       <c r="M70" s="8"/>
     </row>
     <row r="71" spans="2:13">
-      <c r="B71" s="58"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="60"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="90"/>
-      <c r="I71" s="91"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="67"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="61"/>
       <c r="K71" s="6"/>
       <c r="L71" s="7"/>
       <c r="M71" s="8"/>
@@ -6478,30 +6266,30 @@
     <row r="81" spans="1:13">
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="43" t="s">
         <v>30</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="10"/>
-      <c r="I81" s="41" t="s">
+      <c r="I81" s="43" t="s">
         <v>30</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="10"/>
-      <c r="M81" s="41" t="s">
+      <c r="M81" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="12.75" thickBot="1">
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
-      <c r="D82" s="42"/>
+      <c r="D82" s="44"/>
       <c r="G82" s="11"/>
       <c r="H82" s="12"/>
-      <c r="I82" s="42"/>
+      <c r="I82" s="44"/>
       <c r="K82" s="11"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="42"/>
+      <c r="M82" s="44"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="14" t="s">
@@ -6607,14 +6395,14 @@
     <row r="106" spans="1:14">
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
-      <c r="D106" s="41" t="s">
+      <c r="D106" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="12.75" thickBot="1">
       <c r="B107" s="11"/>
       <c r="C107" s="12"/>
-      <c r="D107" s="42"/>
+      <c r="D107" s="44"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="14" t="s">
@@ -6659,11 +6447,11 @@
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="8"/>
-      <c r="H116" s="43" t="s">
+      <c r="H116" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="I116" s="44"/>
-      <c r="J116" s="45"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="86"/>
       <c r="M116" s="6"/>
       <c r="N116" s="7"/>
       <c r="O116" s="8"/>
@@ -6681,10 +6469,10 @@
       <c r="E117" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H117" s="46" t="s">
+      <c r="H117" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="I117" s="47"/>
+      <c r="I117" s="88"/>
       <c r="J117" s="36" t="s">
         <v>20</v>
       </c>
@@ -6710,28 +6498,28 @@
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="8"/>
-      <c r="H119" s="48" t="s">
+      <c r="H119" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="I119" s="49"/>
-      <c r="J119" s="50"/>
+      <c r="I119" s="90"/>
+      <c r="J119" s="91"/>
       <c r="M119" s="6"/>
       <c r="N119" s="7"/>
       <c r="O119" s="8"/>
     </row>
     <row r="120" spans="2:15">
-      <c r="B120" s="61" t="s">
+      <c r="B120" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="62"/>
+      <c r="C120" s="80"/>
       <c r="D120" s="8"/>
       <c r="E120" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H120" s="51" t="s">
+      <c r="H120" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="I120" s="52"/>
+      <c r="I120" s="93"/>
       <c r="J120" s="37">
         <v>40277</v>
       </c>
@@ -6754,11 +6542,11 @@
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="8"/>
-      <c r="H122" s="55" t="s">
+      <c r="H122" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="I122" s="56"/>
-      <c r="J122" s="57"/>
+      <c r="I122" s="63"/>
+      <c r="J122" s="64"/>
       <c r="M122" s="6"/>
       <c r="N122" s="7"/>
       <c r="O122" s="8"/>
@@ -6773,9 +6561,9 @@
       <c r="D123" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H123" s="58"/>
-      <c r="I123" s="59"/>
-      <c r="J123" s="60"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="66"/>
+      <c r="J123" s="67"/>
       <c r="M123" s="6"/>
       <c r="N123" s="7"/>
       <c r="O123" s="8"/>
@@ -6795,27 +6583,27 @@
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="8"/>
-      <c r="H125" s="55" t="s">
+      <c r="H125" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="I125" s="56"/>
-      <c r="J125" s="57"/>
+      <c r="I125" s="63"/>
+      <c r="J125" s="64"/>
       <c r="M125" s="6"/>
       <c r="N125" s="7"/>
       <c r="O125" s="8"/>
     </row>
     <row r="126" spans="2:15">
-      <c r="B126" s="61" t="s">
+      <c r="B126" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C126" s="62"/>
-      <c r="D126" s="63"/>
+      <c r="C126" s="80"/>
+      <c r="D126" s="81"/>
       <c r="E126" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="H126" s="58"/>
-      <c r="I126" s="59"/>
-      <c r="J126" s="60"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="66"/>
+      <c r="J126" s="67"/>
       <c r="M126" s="6"/>
       <c r="N126" s="7"/>
       <c r="O126" s="8"/>
@@ -6887,36 +6675,36 @@
       <c r="O132" s="13"/>
     </row>
     <row r="133" spans="1:15">
-      <c r="B133" s="41" t="s">
+      <c r="B133" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C133" s="10"/>
-      <c r="D133" s="41" t="s">
+      <c r="D133" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="H133" s="41" t="s">
+      <c r="H133" s="43" t="s">
         <v>29</v>
       </c>
       <c r="I133" s="10"/>
-      <c r="J133" s="41" t="s">
+      <c r="J133" s="43" t="s">
         <v>30</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10"/>
-      <c r="O133" s="41" t="s">
+      <c r="O133" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B134" s="42"/>
+      <c r="B134" s="44"/>
       <c r="C134" s="12"/>
-      <c r="D134" s="42"/>
-      <c r="H134" s="42"/>
+      <c r="D134" s="44"/>
+      <c r="H134" s="44"/>
       <c r="I134" s="12"/>
-      <c r="J134" s="42"/>
+      <c r="J134" s="44"/>
       <c r="M134" s="11"/>
       <c r="N134" s="12"/>
-      <c r="O134" s="42"/>
+      <c r="O134" s="44"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="14" t="s">
@@ -6940,16 +6728,16 @@
       </c>
     </row>
     <row r="143" spans="1:15" ht="12.75" thickBot="1">
-      <c r="B143" s="55" t="s">
+      <c r="B143" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C143" s="56"/>
-      <c r="D143" s="57"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="64"/>
     </row>
     <row r="144" spans="1:15" ht="12" customHeight="1">
-      <c r="B144" s="58"/>
-      <c r="C144" s="59"/>
-      <c r="D144" s="60"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="66"/>
+      <c r="D144" s="67"/>
       <c r="F144" s="3"/>
       <c r="G144" s="4"/>
       <c r="H144" s="5"/>
@@ -6965,20 +6753,20 @@
       <c r="H145" s="8"/>
     </row>
     <row r="146" spans="2:8" ht="12" customHeight="1" thickBot="1">
-      <c r="B146" s="55" t="s">
+      <c r="B146" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C146" s="56"/>
-      <c r="D146" s="57"/>
+      <c r="C146" s="63"/>
+      <c r="D146" s="64"/>
       <c r="F146" s="6"/>
       <c r="G146" s="7"/>
       <c r="H146" s="8"/>
     </row>
     <row r="147" spans="2:8" ht="12" customHeight="1" thickBot="1">
-      <c r="B147" s="58"/>
-      <c r="C147" s="59"/>
-      <c r="D147" s="60"/>
-      <c r="F147" s="92" t="s">
+      <c r="B147" s="65"/>
+      <c r="C147" s="66"/>
+      <c r="D147" s="67"/>
+      <c r="F147" s="41" t="s">
         <v>60</v>
       </c>
       <c r="G147" s="34" t="s">
@@ -6990,33 +6778,33 @@
       <c r="B148" s="6"/>
       <c r="C148" s="7"/>
       <c r="D148" s="8"/>
-      <c r="F148" s="92" t="s">
+      <c r="F148" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G148" s="93" t="s">
+      <c r="G148" s="42" t="s">
         <v>57</v>
       </c>
       <c r="H148" s="8"/>
     </row>
     <row r="149" spans="2:8" ht="12" customHeight="1" thickBot="1">
-      <c r="B149" s="55" t="s">
+      <c r="B149" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C149" s="56"/>
-      <c r="D149" s="57"/>
+      <c r="C149" s="63"/>
+      <c r="D149" s="64"/>
       <c r="F149" s="6"/>
       <c r="G149" s="7"/>
       <c r="H149" s="8"/>
     </row>
     <row r="150" spans="2:8" ht="12" customHeight="1">
-      <c r="B150" s="58"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="60"/>
-      <c r="F150" s="53" t="s">
+      <c r="B150" s="65"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="67"/>
+      <c r="F150" s="82" t="s">
         <v>53</v>
       </c>
       <c r="G150" s="34"/>
-      <c r="H150" s="53" t="s">
+      <c r="H150" s="82" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7024,21 +6812,21 @@
       <c r="B151" s="6"/>
       <c r="C151" s="7"/>
       <c r="D151" s="8"/>
-      <c r="F151" s="54"/>
+      <c r="F151" s="83"/>
       <c r="G151" s="35"/>
-      <c r="H151" s="54"/>
+      <c r="H151" s="83"/>
     </row>
     <row r="152" spans="2:8">
-      <c r="B152" s="55" t="s">
+      <c r="B152" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C152" s="56"/>
-      <c r="D152" s="57"/>
+      <c r="C152" s="63"/>
+      <c r="D152" s="64"/>
     </row>
     <row r="153" spans="2:8">
-      <c r="B153" s="58"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="60"/>
+      <c r="B153" s="65"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="67"/>
     </row>
     <row r="154" spans="2:8">
       <c r="B154" s="6"/>
@@ -7071,18 +6859,18 @@
       <c r="D159" s="13"/>
     </row>
     <row r="160" spans="2:8">
-      <c r="B160" s="41" t="s">
+      <c r="B160" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C160" s="10"/>
-      <c r="D160" s="41" t="s">
+      <c r="D160" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B161" s="42"/>
+      <c r="B161" s="44"/>
       <c r="C161" s="12"/>
-      <c r="D161" s="42"/>
+      <c r="D161" s="44"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
@@ -7188,14 +6976,14 @@
     <row r="186" spans="1:4">
       <c r="B186" s="9"/>
       <c r="C186" s="10"/>
-      <c r="D186" s="41" t="s">
+      <c r="D186" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="12.75" thickBot="1">
       <c r="B187" s="11"/>
       <c r="C187" s="12"/>
-      <c r="D187" s="42"/>
+      <c r="D187" s="44"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
@@ -7301,17 +7089,60 @@
     <row r="212" spans="2:4">
       <c r="B212" s="9"/>
       <c r="C212" s="10"/>
-      <c r="D212" s="41" t="s">
+      <c r="D212" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="213" spans="2:4" ht="12.75" thickBot="1">
       <c r="B213" s="11"/>
       <c r="C213" s="12"/>
-      <c r="D213" s="42"/>
+      <c r="D213" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="O133:O134"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="H122:J123"/>
+    <mergeCell ref="H125:J126"/>
+    <mergeCell ref="H133:H134"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B143:D144"/>
+    <mergeCell ref="B146:D147"/>
+    <mergeCell ref="B149:D150"/>
+    <mergeCell ref="B152:D153"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G64:I65"/>
+    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="D81:D82"/>
@@ -7325,49 +7156,6 @@
     <mergeCell ref="G70:I71"/>
     <mergeCell ref="B67:D68"/>
     <mergeCell ref="B70:D71"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G64:I65"/>
-    <mergeCell ref="B64:D65"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B143:D144"/>
-    <mergeCell ref="B146:D147"/>
-    <mergeCell ref="B149:D150"/>
-    <mergeCell ref="B152:D153"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="O133:O134"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="H122:J123"/>
-    <mergeCell ref="H125:J126"/>
-    <mergeCell ref="H133:H134"/>
-    <mergeCell ref="J133:J134"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="H120:I120"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
